--- a/admin/product_import.xlsx
+++ b/admin/product_import.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940"/>
   </bookViews>
   <sheets>
-    <sheet name="hưng" sheetId="1" r:id="rId4"/>
+    <sheet name="hưng" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -56,14 +55,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -74,31 +68,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -388,19 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,7 +429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -451,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -469,17 +464,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/admin/product_import.xlsx
+++ b/admin/product_import.xlsx
@@ -41,16 +41,16 @@
     <t>Công ty thiết kế web Vinalink</t>
   </si>
   <si>
-    <t>cao văn quá</t>
-  </si>
-  <si>
-    <t>Thiết kế đồ họa</t>
-  </si>
-  <si>
-    <t>Công ty cổ phần - Tập đoàn thời trang Thái Tuấn</t>
+    <t>Phan Tấn Khải</t>
   </si>
   <si>
     <t>Nguyễn Ngọc Bảo</t>
+  </si>
+  <si>
+    <t>Phan Văn Phán</t>
+  </si>
+  <si>
+    <t>MTĐT - Digital &amp; Online Maketing</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -465,7 +465,41 @@
         <v>7</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
